--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H2">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I2">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J2">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N2">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P2">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q2">
-        <v>39.81083848096045</v>
+        <v>32.87386418286</v>
       </c>
       <c r="R2">
-        <v>358.297546328644</v>
+        <v>295.86477764574</v>
       </c>
       <c r="S2">
-        <v>0.005041985132530149</v>
+        <v>0.006392539701180276</v>
       </c>
       <c r="T2">
-        <v>0.005041985132530149</v>
+        <v>0.006392539701180279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H3">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I3">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J3">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P3">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q3">
-        <v>428.5993569872654</v>
+        <v>336.219617518533</v>
       </c>
       <c r="R3">
-        <v>3857.394212885388</v>
+        <v>3025.976557666797</v>
       </c>
       <c r="S3">
-        <v>0.05428148886578386</v>
+        <v>0.06538012207349464</v>
       </c>
       <c r="T3">
-        <v>0.05428148886578385</v>
+        <v>0.06538012207349464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H4">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I4">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J4">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N4">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O4">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P4">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q4">
-        <v>632.8173091878027</v>
+        <v>854.9091412993949</v>
       </c>
       <c r="R4">
-        <v>5695.355782690224</v>
+        <v>7694.182271694553</v>
       </c>
       <c r="S4">
-        <v>0.08014539724046678</v>
+        <v>0.1662427208514088</v>
       </c>
       <c r="T4">
-        <v>0.08014539724046675</v>
+        <v>0.1662427208514088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H5">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I5">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J5">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N5">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O5">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P5">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q5">
-        <v>224.3177252361143</v>
+        <v>223.509414072009</v>
       </c>
       <c r="R5">
-        <v>2018.859527125028</v>
+        <v>2011.584726648081</v>
       </c>
       <c r="S5">
-        <v>0.02840951556808771</v>
+        <v>0.04346287966316454</v>
       </c>
       <c r="T5">
-        <v>0.02840951556808771</v>
+        <v>0.04346287966316455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H6">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I6">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J6">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N6">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P6">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q6">
-        <v>938.0337771941602</v>
+        <v>609.5145911491169</v>
       </c>
       <c r="R6">
-        <v>8442.303994747443</v>
+        <v>5485.631320342052</v>
       </c>
       <c r="S6">
-        <v>0.1188006216117745</v>
+        <v>0.1185241321402337</v>
       </c>
       <c r="T6">
-        <v>0.1188006216117745</v>
+        <v>0.1185241321402337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N7">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P7">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q7">
-        <v>30.633742272848</v>
+        <v>32.24615606432</v>
       </c>
       <c r="R7">
-        <v>275.703680455632</v>
+        <v>290.21540457888</v>
       </c>
       <c r="S7">
-        <v>0.003879719166611576</v>
+        <v>0.006270477717648318</v>
       </c>
       <c r="T7">
-        <v>0.003879719166611576</v>
+        <v>0.006270477717648319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P8">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q8">
         <v>329.799691270896</v>
@@ -948,10 +948,10 @@
         <v>2968.197221438064</v>
       </c>
       <c r="S8">
-        <v>0.04176865405374838</v>
+        <v>0.06413172507372647</v>
       </c>
       <c r="T8">
-        <v>0.04176865405374838</v>
+        <v>0.06413172507372647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N9">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O9">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P9">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q9">
-        <v>486.941825270208</v>
+        <v>838.58512762024</v>
       </c>
       <c r="R9">
-        <v>4382.476427431871</v>
+        <v>7547.266148582159</v>
       </c>
       <c r="S9">
-        <v>0.06167047811850686</v>
+        <v>0.1630684087308089</v>
       </c>
       <c r="T9">
-        <v>0.06167047811850685</v>
+        <v>0.1630684087308089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N10">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O10">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P10">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q10">
-        <v>172.608556973776</v>
+        <v>219.241626354608</v>
       </c>
       <c r="R10">
-        <v>1553.477012763984</v>
+        <v>1973.174637191472</v>
       </c>
       <c r="S10">
-        <v>0.02186062417212032</v>
+        <v>0.04263298019445773</v>
       </c>
       <c r="T10">
-        <v>0.02186062417212032</v>
+        <v>0.04263298019445774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N11">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P11">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q11">
-        <v>721.80054654048</v>
+        <v>597.876249665904</v>
       </c>
       <c r="R11">
-        <v>6496.20491886432</v>
+        <v>5380.886246993136</v>
       </c>
       <c r="S11">
-        <v>0.09141499559346726</v>
+        <v>0.1162609798812388</v>
       </c>
       <c r="T11">
-        <v>0.09141499559346726</v>
+        <v>0.1162609798812388</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H12">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I12">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J12">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N12">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P12">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q12">
-        <v>42.4428473352361</v>
+        <v>2.809818022324445</v>
       </c>
       <c r="R12">
-        <v>381.985626017125</v>
+        <v>25.28836220092</v>
       </c>
       <c r="S12">
-        <v>0.005375325248395637</v>
+        <v>0.0005463876458480334</v>
       </c>
       <c r="T12">
-        <v>0.005375325248395638</v>
+        <v>0.0005463876458480335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H13">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I13">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J13">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P13">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q13">
-        <v>456.9352912597083</v>
+        <v>28.73759943484734</v>
       </c>
       <c r="R13">
-        <v>4112.417621337375</v>
+        <v>258.638394913626</v>
       </c>
       <c r="S13">
-        <v>0.05787019397146345</v>
+        <v>0.00558821574129577</v>
       </c>
       <c r="T13">
-        <v>0.05787019397146345</v>
+        <v>0.00558821574129577</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H14">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I14">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J14">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N14">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O14">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P14">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q14">
-        <v>674.6546787201665</v>
+        <v>73.07139493279888</v>
       </c>
       <c r="R14">
-        <v>6071.892108481499</v>
+        <v>657.6425543951899</v>
       </c>
       <c r="S14">
-        <v>0.08544403960056757</v>
+        <v>0.01420921466762298</v>
       </c>
       <c r="T14">
-        <v>0.08544403960056757</v>
+        <v>0.01420921466762299</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H15">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I15">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J15">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N15">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O15">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P15">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q15">
-        <v>239.1480142106805</v>
+        <v>19.10395371609978</v>
       </c>
       <c r="R15">
-        <v>2152.332127896125</v>
+        <v>171.935583444898</v>
       </c>
       <c r="S15">
-        <v>0.03028775022412616</v>
+        <v>0.003714889795138581</v>
       </c>
       <c r="T15">
-        <v>0.03028775022412616</v>
+        <v>0.003714889795138581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H16">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I16">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J16">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N16">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P16">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q16">
-        <v>1000.0498838975</v>
+        <v>52.09685948551933</v>
       </c>
       <c r="R16">
-        <v>9000.4489550775</v>
+        <v>468.871735369674</v>
       </c>
       <c r="S16">
-        <v>0.1266548718588569</v>
+        <v>0.01013057791793247</v>
       </c>
       <c r="T16">
-        <v>0.126654871858857</v>
+        <v>0.01013057791793247</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H17">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N17">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P17">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q17">
-        <v>11.61674527188645</v>
+        <v>10.09412714130889</v>
       </c>
       <c r="R17">
-        <v>104.550707446978</v>
+        <v>90.84714427178001</v>
       </c>
       <c r="S17">
-        <v>0.001471243992443244</v>
+        <v>0.001962869595756925</v>
       </c>
       <c r="T17">
-        <v>0.001471243992443244</v>
+        <v>0.001962869595756925</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H18">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P18">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q18">
-        <v>125.0646744402674</v>
+        <v>103.2383521376177</v>
       </c>
       <c r="R18">
-        <v>1125.582069962406</v>
+        <v>929.145169238559</v>
       </c>
       <c r="S18">
-        <v>0.01583926019126987</v>
+        <v>0.02007537845423851</v>
       </c>
       <c r="T18">
-        <v>0.01583926019126986</v>
+        <v>0.02007537845423851</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H19">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N19">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O19">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P19">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q19">
-        <v>184.6551784632987</v>
+        <v>262.5052387678427</v>
       </c>
       <c r="R19">
-        <v>1661.896606169688</v>
+        <v>2362.547148910585</v>
       </c>
       <c r="S19">
-        <v>0.02338631136598437</v>
+        <v>0.05104587496185401</v>
       </c>
       <c r="T19">
-        <v>0.02338631136598437</v>
+        <v>0.05104587496185403</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H20">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N20">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O20">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P20">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q20">
-        <v>65.45558881617623</v>
+        <v>68.62997396267856</v>
       </c>
       <c r="R20">
-        <v>589.100299345586</v>
+        <v>617.669765664107</v>
       </c>
       <c r="S20">
-        <v>0.008289855683647618</v>
+        <v>0.01334555106777298</v>
       </c>
       <c r="T20">
-        <v>0.008289855683647616</v>
+        <v>0.01334555106777299</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H21">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N21">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P21">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q21">
-        <v>273.71690378492</v>
+        <v>187.1552958702657</v>
       </c>
       <c r="R21">
-        <v>2463.45213406428</v>
+        <v>1684.397662832391</v>
       </c>
       <c r="S21">
-        <v>0.03466585010676865</v>
+        <v>0.03639358161492315</v>
       </c>
       <c r="T21">
-        <v>0.03466585010676865</v>
+        <v>0.03639358161492316</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H22">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.119550333333333</v>
+        <v>2.231113333333334</v>
       </c>
       <c r="N22">
-        <v>6.358651</v>
+        <v>6.69334</v>
       </c>
       <c r="O22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="P22">
-        <v>0.01758756303903228</v>
+        <v>0.01598125358798882</v>
       </c>
       <c r="Q22">
-        <v>14.36486591948922</v>
+        <v>4.160203085846667</v>
       </c>
       <c r="R22">
-        <v>129.283793275403</v>
+        <v>37.44182777261999</v>
       </c>
       <c r="S22">
-        <v>0.001819289499051675</v>
+        <v>0.0008089789275552648</v>
       </c>
       <c r="T22">
-        <v>0.001819289499051675</v>
+        <v>0.0008089789275552649</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H23">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>68.456577</v>
       </c>
       <c r="O23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640196</v>
       </c>
       <c r="P23">
-        <v>0.1893458790903711</v>
+        <v>0.1634493267640195</v>
       </c>
       <c r="Q23">
-        <v>154.6506562338757</v>
+        <v>42.54875187602899</v>
       </c>
       <c r="R23">
-        <v>1391.855906104881</v>
+        <v>382.9387668842609</v>
       </c>
       <c r="S23">
-        <v>0.01958628200810556</v>
+        <v>0.008273885421264183</v>
       </c>
       <c r="T23">
-        <v>0.01958628200810555</v>
+        <v>0.008273885421264183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H24">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.691532</v>
+        <v>58.02175166666666</v>
       </c>
       <c r="N24">
-        <v>101.074596</v>
+        <v>174.065255</v>
       </c>
       <c r="O24">
-        <v>0.2795649311142757</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="P24">
-        <v>0.2795649311142756</v>
+        <v>0.4156043142904646</v>
       </c>
       <c r="Q24">
-        <v>228.3382150406653</v>
+        <v>108.1891568319683</v>
       </c>
       <c r="R24">
-        <v>2055.043935365988</v>
+        <v>973.7024114877148</v>
       </c>
       <c r="S24">
-        <v>0.02891870478875007</v>
+        <v>0.02103809507876989</v>
       </c>
       <c r="T24">
-        <v>0.02891870478875007</v>
+        <v>0.0210380950787699</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H25">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.94279566666667</v>
+        <v>15.16934033333333</v>
       </c>
       <c r="N25">
-        <v>35.828387</v>
+        <v>45.508021</v>
       </c>
       <c r="O25">
-        <v>0.09909869482526164</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="P25">
-        <v>0.09909869482526162</v>
+        <v>0.1086565487318021</v>
       </c>
       <c r="Q25">
-        <v>80.9401200610901</v>
+        <v>28.28522223508367</v>
       </c>
       <c r="R25">
-        <v>728.461080549811</v>
+        <v>254.567000115753</v>
       </c>
       <c r="S25">
-        <v>0.01025094917727983</v>
+        <v>0.005500248011268286</v>
       </c>
       <c r="T25">
-        <v>0.01025094917727983</v>
+        <v>0.005500248011268287</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H26">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>49.94142</v>
+        <v>41.36709099999999</v>
       </c>
       <c r="N26">
-        <v>149.82426</v>
+        <v>124.101273</v>
       </c>
       <c r="O26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="P26">
-        <v>0.4144029319310594</v>
+        <v>0.2963085566257249</v>
       </c>
       <c r="Q26">
-        <v>338.46886806442</v>
+        <v>77.13436025842098</v>
       </c>
       <c r="R26">
-        <v>3046.21981257978</v>
+        <v>694.2092423257889</v>
       </c>
       <c r="S26">
-        <v>0.04286659276019204</v>
+        <v>0.01499928507139681</v>
       </c>
       <c r="T26">
-        <v>0.04286659276019205</v>
+        <v>0.01499928507139681</v>
       </c>
     </row>
   </sheetData>
